--- a/support/POEC_Projet_Gr1 - Tests Cases.xlsx
+++ b/support/POEC_Projet_Gr1 - Tests Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\WebstormProjects\poec_project_gr1\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDC452B-C702-4A3C-B440-2EA0DC9999F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E7796A-3AFC-46E7-9132-CC052C64B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6A8EEAF-0434-426F-813B-6C782226AED2}"/>
   </bookViews>
@@ -4012,7 +4012,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4246,7 +4246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4269,6 +4269,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4405,9 +4411,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4444,9 +4447,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4576,10 +4576,16 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -4617,9 +4623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4657,7 +4663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4763,7 +4769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4913,26 +4919,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83A77E0-E113-4A09-B8CA-4885ED3EEB8B}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" style="5" customWidth="1"/>
     <col min="5" max="5" width="35" style="5" customWidth="1"/>
     <col min="6" max="6" width="31" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="4" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="3"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4959,9 +4965,9 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="22.15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:9" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9"/>
@@ -4972,783 +4978,782 @@
       <c r="H2" s="9"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="52.15" customHeight="1" thickBot="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="52.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="56.65" customHeight="1" thickBot="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:9" ht="56.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="33"/>
+    <row r="5" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:9" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="32"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:9" ht="215.1" customHeight="1" thickBot="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:9" ht="215.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="125.25" customHeight="1" thickBot="1">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:9" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="197.45" customHeight="1" thickBot="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19" t="s">
+    <row r="9" spans="1:9" ht="197.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:9" ht="107.45" customHeight="1" thickBot="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19" t="s">
+    <row r="10" spans="1:9" ht="107.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:9" ht="144.6" customHeight="1" thickBot="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19" t="s">
+    <row r="11" spans="1:9" ht="127" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="1:9" ht="141" customHeight="1" thickBot="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19" t="s">
+    <row r="12" spans="1:9" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="134.44999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:9" ht="134.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:9" ht="131.1" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19" t="s">
+    <row r="14" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="131.1" thickBot="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19" t="s">
+    <row r="15" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:9" ht="171.6" customHeight="1" thickBot="1">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" ht="171.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="1:8" ht="189.95" customHeight="1" thickBot="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="48" t="s">
+    <row r="17" spans="1:8" ht="190" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:8" ht="137.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="49" t="s">
+    <row r="18" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="35"/>
     </row>
-    <row r="19" spans="1:8" ht="76.5">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="51"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="49"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="36"/>
+      <c r="B21" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="109.5" customHeight="1">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" ht="136.15" customHeight="1" thickBot="1">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:8" ht="136.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="44" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" ht="86.65" customHeight="1" thickBot="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44" t="s">
+    <row r="24" spans="1:8" ht="86.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" ht="86.65" customHeight="1" thickBot="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44" t="s">
+    <row r="25" spans="1:8" ht="86.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="1:8" ht="106.5" customHeight="1" thickBot="1">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:8" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="35"/>
     </row>
-    <row r="27" spans="1:8" ht="102" thickBot="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="44" t="s">
+    <row r="27" spans="1:8" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="44"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="35"/>
     </row>
-    <row r="28" spans="1:8" ht="142.9" customHeight="1" thickBot="1">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:8" ht="142.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="35"/>
     </row>
-    <row r="29" spans="1:8" ht="148.15" customHeight="1" thickBot="1">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:8" ht="148.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="147.75" customHeight="1" thickBot="1">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:8" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="35"/>
     </row>
-    <row r="31" spans="1:8" ht="142.9" customHeight="1" thickBot="1">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:8" ht="142.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="37"/>
+      <c r="H31" s="35"/>
     </row>
-    <row r="32" spans="1:8" ht="137.25">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="37"/>
+      <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="183">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A33" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="37"/>
+      <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
-      <c r="A34" s="54" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="55" t="s">
+      <c r="H34" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="56"/>
+      <c r="I34" s="54"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="I35" s="56"/>
+      <c r="I35" s="54"/>
     </row>
-    <row r="36" spans="1:9" s="64" customFormat="1" ht="76.5">
-      <c r="A36" s="60" t="s">
+    <row r="36" spans="1:9" s="62" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I36" s="63"/>
+      <c r="I36" s="61"/>
     </row>
-    <row r="37" spans="1:9" s="64" customFormat="1" ht="60.75">
-      <c r="A37" s="60" t="s">
+    <row r="37" spans="1:9" s="62" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="63"/>
+      <c r="I37" s="61"/>
     </row>
-    <row r="38" spans="1:9" s="64" customFormat="1" ht="137.25">
-      <c r="A38" s="60" t="s">
+    <row r="38" spans="1:9" s="62" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F38" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="63"/>
+      <c r="I38" s="61"/>
     </row>
-    <row r="39" spans="1:9" s="64" customFormat="1" ht="137.25">
-      <c r="A39" s="60" t="s">
+    <row r="39" spans="1:9" s="62" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I39" s="63"/>
+      <c r="I39" s="61"/>
     </row>
-    <row r="40" spans="1:9" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="G3:G33">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NT">
@@ -5776,13 +5781,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fbe1f6a2-11df-49a7-902e-d76eb29cc56b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5952,22 +5956,47 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fbe1f6a2-11df-49a7-902e-d76eb29cc56b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43078F3E-2502-4F4C-B63E-C529B4626448}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA37AC1-356C-4967-AEB1-AF6FDBA7BEBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F5C9AF-9752-4DD0-AADC-D02842FC1DAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F5C9AF-9752-4DD0-AADC-D02842FC1DAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fbe1f6a2-11df-49a7-902e-d76eb29cc56b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA37AC1-356C-4967-AEB1-AF6FDBA7BEBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43078F3E-2502-4F4C-B63E-C529B4626448}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fbe1f6a2-11df-49a7-902e-d76eb29cc56b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>